--- a/results/20250402/evaluation_emotions_noisy_0.1.xlsx
+++ b/results/20250402/evaluation_emotions_noisy_0.1.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.31369</v>
+        <v>0.6575</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02983</v>
+        <v>0.01883</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.12583</v>
+        <v>0.18891</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03675</v>
+        <v>0.04049</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.25564</v>
+        <v>0.63153</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0273</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.06678000000000001</v>
+        <v>0.08197</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02312</v>
+        <v>0.02841</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.31455</v>
+        <v>0.65708</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02838</v>
+        <v>0.01873</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.12617</v>
+        <v>0.18925</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03656</v>
+        <v>0.04184</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.25179</v>
+        <v>0.62892</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02679</v>
+        <v>0.01608</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0678</v>
+        <v>0.0887</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02086</v>
+        <v>0.02814</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.39847</v>
+        <v>0.65889</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03552</v>
+        <v>0.01267</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.18653</v>
+        <v>0.08266999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05233</v>
+        <v>0.03898</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.38792</v>
+        <v>0.65944</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03165</v>
+        <v>0.01252</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.17305</v>
+        <v>0.09213</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0475</v>
+        <v>0.04016</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.39793</v>
+        <v>0.65882</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03626</v>
+        <v>0.01285</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.18653</v>
+        <v>0.08266999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05271</v>
+        <v>0.03898</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.38792</v>
+        <v>0.6599</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03235</v>
+        <v>0.01246</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.17372</v>
+        <v>0.09213</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04807</v>
+        <v>0.04053</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.39759</v>
+        <v>0.62449</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03226</v>
+        <v>0.02246</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.1952</v>
+        <v>0.10054</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04314</v>
+        <v>0.02619</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.32285</v>
+        <v>0.60481</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02812</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.12002</v>
+        <v>0.04283</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03367</v>
+        <v>0.02219</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.39858</v>
+        <v>0.62449</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03331</v>
+        <v>0.02218</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.19723</v>
+        <v>0.10122</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04297</v>
+        <v>0.02632</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.30674</v>
+        <v>0.60616</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03112</v>
+        <v>0.02466</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.10787</v>
+        <v>0.05498</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03331</v>
+        <v>0.02543</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.42704</v>
+        <v>0.63514</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03296</v>
+        <v>0.02095</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.21211</v>
+        <v>0.03846</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04901</v>
+        <v>0.01677</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.38351</v>
+        <v>0.6393</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02829</v>
+        <v>0.01907</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.16961</v>
+        <v>0.06815</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04546</v>
+        <v>0.02442</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.42589</v>
+        <v>0.6357</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03468</v>
+        <v>0.02067</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.21245</v>
+        <v>0.03846</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05167</v>
+        <v>0.01677</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.38329</v>
+        <v>0.63964</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02799</v>
+        <v>0.01871</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.16928</v>
+        <v>0.06748</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04507</v>
+        <v>0.02444</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.29463</v>
+        <v>0.66533</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02539</v>
+        <v>0.02047</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.11667</v>
+        <v>0.19329</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02941</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.25384</v>
+        <v>0.63834</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02319</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.06237</v>
+        <v>0.0813</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02231</v>
+        <v>0.02546</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.29563</v>
+        <v>0.6654</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02619</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.11566</v>
+        <v>0.19463</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03197</v>
+        <v>0.03993</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.24659</v>
+        <v>0.63579</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02223</v>
+        <v>0.01993</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.06271</v>
+        <v>0.08569</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0181</v>
+        <v>0.02577</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.38142</v>
+        <v>0.66604</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02695</v>
+        <v>0.01348</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.16184</v>
+        <v>0.07897</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03634</v>
+        <v>0.03306</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.37694</v>
+        <v>0.6662400000000001</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02951</v>
+        <v>0.01317</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.15476</v>
+        <v>0.08705</v>
       </c>
       <c r="I117" t="n">
-        <v>0.03635</v>
+        <v>0.03454</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.38036</v>
+        <v>0.66616</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02744</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.16049</v>
+        <v>0.07897</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03708</v>
+        <v>0.03306</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.3769</v>
+        <v>0.66636</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02925</v>
+        <v>0.01324</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.15341</v>
+        <v>0.08807</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03638</v>
+        <v>0.03491</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.38453</v>
+        <v>0.62788</v>
       </c>
       <c r="I146" t="n">
-        <v>0.04168</v>
+        <v>0.02395</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.19625</v>
+        <v>0.11811</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04164</v>
+        <v>0.03392</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.31096</v>
+        <v>0.6058</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04008</v>
+        <v>0.02255</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.12002</v>
+        <v>0.05231</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0386</v>
+        <v>0.02334</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.38294</v>
+        <v>0.62927</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0414</v>
+        <v>0.02466</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.19626</v>
+        <v>0.12283</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04195</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.28817</v>
+        <v>0.60938</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04067</v>
+        <v>0.02333</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.10486</v>
+        <v>0.06884</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03767</v>
+        <v>0.02754</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.4307</v>
+        <v>0.63817</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03589</v>
+        <v>0.01607</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.21952</v>
+        <v>0.0439</v>
       </c>
       <c r="I155" t="n">
-        <v>0.04373</v>
+        <v>0.02449</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.38841</v>
+        <v>0.64352</v>
       </c>
       <c r="I156" t="n">
-        <v>0.04106</v>
+        <v>0.01768</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.18141</v>
+        <v>0.0682</v>
       </c>
       <c r="I157" t="n">
-        <v>0.04413</v>
+        <v>0.02925</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.4305</v>
+        <v>0.63824</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03643</v>
+        <v>0.01609</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.2202</v>
+        <v>0.0439</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04472</v>
+        <v>0.02449</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.38538</v>
+        <v>0.64332</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03911</v>
+        <v>0.01808</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.17737</v>
+        <v>0.06854</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04319</v>
+        <v>0.03026</v>
       </c>
     </row>
   </sheetData>
